--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Minnesota</t>
         </is>
       </c>
     </row>

--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -85,12 +85,83 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -473,7 +544,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="2" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,6 +558,9 @@
         <is>
           <t>Minnesota</t>
         </is>
+      </c>
+      <c r="C1" s="10" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">

--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25600" yWindow="2620" windowWidth="25600" windowHeight="15540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -85,83 +85,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -536,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -544,8 +473,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="8.83203125" customWidth="1" style="2" min="2" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -558,9 +486,6 @@
         <is>
           <t>Minnesota</t>
         </is>
-      </c>
-      <c r="C1" s="10" t="n">
-        <v>44307</v>
       </c>
     </row>
     <row r="3">
